--- a/Excelfile/jpetstore.xlsx
+++ b/Excelfile/jpetstore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.GIRI BABU\Desktop\chromedriver_win32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F8284-51BC-45EC-99A9-B23E9D5EA6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE90B02A-1D68-49AA-BF8D-0DB1BFCAF45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{62CAE6D4-92CE-46B2-82AC-C57428EBAC99}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>"517198"</t>
   </si>
   <si>
-    <t>giribabu velkur</t>
-  </si>
-  <si>
-    <t>giribabuvelkur@gmail.com</t>
+    <t>giribabvelkuryar</t>
+  </si>
+  <si>
+    <t>giribabuvekyadayad@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/Excelfile/jpetstore.xlsx
+++ b/Excelfile/jpetstore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.GIRI BABU\Desktop\chromedriver_win32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE90B02A-1D68-49AA-BF8D-0DB1BFCAF45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047C2294-6452-411D-9480-B6D9BBB1E27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{62CAE6D4-92CE-46B2-82AC-C57428EBAC99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62CAE6D4-92CE-46B2-82AC-C57428EBAC99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>"517198"</t>
   </si>
   <si>
-    <t>giribabvelkuryar</t>
-  </si>
-  <si>
-    <t>giribabuvekyadayad@gmail.com</t>
+    <t>giribabvelkuryard</t>
+  </si>
+  <si>
+    <t>giribabuvekdayad@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
